--- a/测试系统码配置文件V1.00.xlsx
+++ b/测试系统码配置文件V1.00.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" updateLinks="never" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA7C8F3-0F28-4184-8CD8-99DEB3AD31A0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256A4641-4544-4D01-91F2-4675ED9D09A7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12750" tabRatio="399" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="845">
   <si>
     <t>显示配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3165,6 +3165,14 @@
   </si>
   <si>
     <t>float32</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>float32</t>
+    <phoneticPr fontId="19"/>
+  </si>
+  <si>
+    <t>rpm</t>
     <phoneticPr fontId="19"/>
   </si>
 </sst>
@@ -4260,10 +4268,10 @@
   <dimension ref="A1:Q208"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D123" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D199" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J134" sqref="J134"/>
+      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" customHeight="1"/>
@@ -5504,7 +5512,7 @@
         <v>100</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>715</v>
+        <v>844</v>
       </c>
       <c r="M26" s="8" t="s">
         <v>30</v>
@@ -5999,16 +6007,16 @@
         <v>808</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>744</v>
+        <v>843</v>
       </c>
       <c r="H36" s="14">
         <v>0</v>
       </c>
       <c r="I36" s="15">
-        <v>-10000</v>
+        <v>-21474836.469999999</v>
       </c>
       <c r="J36" s="15">
-        <v>10000</v>
+        <v>21474836.469999999</v>
       </c>
       <c r="K36" s="15">
         <v>0</v>
